--- a/rpa/range_insert.xlsx
+++ b/rpa/range_insert.xlsx
@@ -430,47 +430,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/rpa/range_insert.xlsx
+++ b/rpa/range_insert.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,47 +430,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
